--- a/biology/Botanique/Amasse/Amasse.xlsx
+++ b/biology/Botanique/Amasse/Amasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’amasse (du gascon amassa) est le nom donné dans les Landes de Gascogne à la récolte de la résine de pin.
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’amasse est au pinhadar (forêt des Landes) ce que la vendange est au vignoble. L'opération est parfois réalisée en famille, où femme et enfants viennent aider le gemmeur. L'amasse consiste à vider le contenu des pots de résine grâce à une palinette, permettant de curer les pots, dans des récipients en bois ou en[1] zinc: les escouartes. Ces dernières seront à leur tour vidées dans les barriques de résine. La production d’une barrique de 340 litres de résine demandait dix jours de travail, à raison de quatre litres de gemme par heure de travail. Chaque saison comptait de quatre à six amasses, en fonction de l’âge du pin et de la qualité de la pique (entretien de la care).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’amasse est au pinhadar (forêt des Landes) ce que la vendange est au vignoble. L'opération est parfois réalisée en famille, où femme et enfants viennent aider le gemmeur. L'amasse consiste à vider le contenu des pots de résine grâce à une palinette, permettant de curer les pots, dans des récipients en bois ou en zinc: les escouartes. Ces dernières seront à leur tour vidées dans les barriques de résine. La production d’une barrique de 340 litres de résine demandait dix jours de travail, à raison de quatre litres de gemme par heure de travail. Chaque saison comptait de quatre à six amasses, en fonction de l’âge du pin et de la qualité de la pique (entretien de la care).
 </t>
         </is>
       </c>
